--- a/download/sedes/Plantilla_Sedes.xlsx
+++ b/download/sedes/Plantilla_Sedes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\WappsiDeveloperWeb02\download\sedes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Documentos\Desarrollo\sedes nueva version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D1772F9-A874-4E06-B2D3-64AF1720167C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tipo_Complemento</t>
   </si>
@@ -59,12 +58,15 @@
   </si>
   <si>
     <t>Código_Variacion_Menu</t>
+  </si>
+  <si>
+    <t>Zona_PAE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -899,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +965,9 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
